--- a/LF/TAS/Burkina Faso/2023/september/bf_lf_tas1_202309_3_resultats_fts.xlsx
+++ b/LF/TAS/Burkina Faso/2023/september/bf_lf_tas1_202309_3_resultats_fts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\LF\TAS\Burkina Faso\2023\september\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5318D969-6BEF-44DC-B657-05F8CB2A22F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{592F34A8-B979-4410-8892-826C1C580B8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1305" uniqueCount="514">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1305" uniqueCount="515">
   <si>
     <t>type</t>
   </si>
@@ -1755,6 +1755,9 @@
   </si>
   <si>
     <t>001 (NAHIRINDON)</t>
+  </si>
+  <si>
+    <t>N.TONHERO</t>
   </si>
 </sst>
 </file>
@@ -3289,7 +3292,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A44" sqref="A44:XFD284"/>
+      <selection pane="bottomLeft" activeCell="D1" activeCellId="1" sqref="B1:B1048576 D1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -5471,7 +5474,7 @@
         <v>185</v>
       </c>
       <c r="B175" t="s">
-        <v>308</v>
+        <v>514</v>
       </c>
       <c r="C175" t="s">
         <v>308</v>
@@ -6751,7 +6754,7 @@
         <v>486</v>
       </c>
       <c r="H267" t="s">
-        <v>308</v>
+        <v>514</v>
       </c>
     </row>
     <row r="268" spans="1:8">

--- a/LF/TAS/Burkina Faso/2023/september/bf_lf_tas1_202309_3_resultats_fts.xlsx
+++ b/LF/TAS/Burkina Faso/2023/september/bf_lf_tas1_202309_3_resultats_fts.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\LF\TAS\Burkina Faso\2023\september\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{592F34A8-B979-4410-8892-826C1C580B8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63385F7C-36F7-473E-A348-6A6C4575932F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1305" uniqueCount="515">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1289" uniqueCount="514">
   <si>
     <t>type</t>
   </si>
@@ -1277,12 +1277,6 @@
     <t>d_numero_ordre_grappe</t>
   </si>
   <si>
-    <t>bf_lf_tas1_202309_3_resultats_fts</t>
-  </si>
-  <si>
-    <t>(Sept 2023) Burkina Faso TAS FL - 3. Formulaire Résultat FTS</t>
-  </si>
-  <si>
     <t>CENTRE EST</t>
   </si>
   <si>
@@ -1292,9 +1286,6 @@
     <t>DIMISTENGA</t>
   </si>
   <si>
-    <t>TEYOGDIN</t>
-  </si>
-  <si>
     <t>NOHOUNGO</t>
   </si>
   <si>
@@ -1343,15 +1334,9 @@
     <t>020</t>
   </si>
   <si>
-    <t>006 (KALWÈNGA)</t>
-  </si>
-  <si>
     <t>006</t>
   </si>
   <si>
-    <t>016 (KALWÈNGA)</t>
-  </si>
-  <si>
     <t>016</t>
   </si>
   <si>
@@ -1361,9 +1346,6 @@
     <t>029</t>
   </si>
   <si>
-    <t>039 (DIALGAYE)</t>
-  </si>
-  <si>
     <t>039</t>
   </si>
   <si>
@@ -1373,39 +1355,21 @@
     <t>051</t>
   </si>
   <si>
-    <t>061 (ZEGUEDEGA)</t>
-  </si>
-  <si>
     <t>061</t>
   </si>
   <si>
-    <t>071 (BOULGA)</t>
-  </si>
-  <si>
     <t>071</t>
   </si>
   <si>
-    <t>010 (TEYOGDIN)</t>
-  </si>
-  <si>
     <t>010</t>
   </si>
   <si>
-    <t>026 (DIMISTENGA)</t>
-  </si>
-  <si>
     <t>026</t>
   </si>
   <si>
-    <t>036 (KABÈGA)</t>
-  </si>
-  <si>
     <t>036</t>
   </si>
   <si>
-    <t>047 (GOUNGHIN)</t>
-  </si>
-  <si>
     <t>047</t>
   </si>
   <si>
@@ -1415,45 +1379,21 @@
     <t>001</t>
   </si>
   <si>
-    <t>069 (GOUNGHIN)</t>
-  </si>
-  <si>
     <t>069</t>
   </si>
   <si>
-    <t>004 (TENSOBENTENGA)</t>
-  </si>
-  <si>
     <t>004</t>
   </si>
   <si>
-    <t>016 (TENSOBENTENGA)</t>
-  </si>
-  <si>
-    <t>028 (TENSOBENTENGA)</t>
-  </si>
-  <si>
     <t>028</t>
   </si>
   <si>
-    <t>039 (ZÉOLOGHIN)</t>
-  </si>
-  <si>
-    <t>003 (TANDATENGA)</t>
-  </si>
-  <si>
     <t>003</t>
   </si>
   <si>
-    <t>019 (YARGO)</t>
-  </si>
-  <si>
     <t>019</t>
   </si>
   <si>
-    <t>030 (OUEDEGO-BOKIN)</t>
-  </si>
-  <si>
     <t>030</t>
   </si>
   <si>
@@ -1463,123 +1403,57 @@
     <t>041</t>
   </si>
   <si>
-    <t>016 (BOANGTENGA)</t>
-  </si>
-  <si>
     <t>027 (ZAOGO)</t>
   </si>
   <si>
     <t>027</t>
   </si>
   <si>
-    <t>039 (NOHOUNGO)</t>
-  </si>
-  <si>
     <t>050 (LIGUIDI-MALGUEM)</t>
   </si>
   <si>
     <t>050</t>
   </si>
   <si>
-    <t>061 (KOUPÉLA)</t>
-  </si>
-  <si>
-    <t>071 (KOUPÉLA)</t>
-  </si>
-  <si>
-    <t>081 (KOUPÉLA)</t>
-  </si>
-  <si>
     <t>081</t>
   </si>
   <si>
-    <t>092 (KOUPÉLA)</t>
-  </si>
-  <si>
     <t>092</t>
   </si>
   <si>
-    <t>102 (KOUPÉLA)</t>
-  </si>
-  <si>
     <t>102</t>
   </si>
   <si>
-    <t>114 (KOUPÉLA)</t>
-  </si>
-  <si>
     <t>114</t>
   </si>
   <si>
-    <t>124 (KOUPÉLA)</t>
-  </si>
-  <si>
     <t>124</t>
   </si>
   <si>
-    <t>004 (GOUNGHIN)</t>
-  </si>
-  <si>
-    <t>045 (TEYOGODIN)</t>
-  </si>
-  <si>
     <t>045</t>
   </si>
   <si>
-    <t>007 (GOUNGHIN)</t>
-  </si>
-  <si>
     <t>007</t>
   </si>
   <si>
-    <t>049 (TENSOBENTENGA)</t>
-  </si>
-  <si>
     <t>049</t>
   </si>
   <si>
-    <t>007 (ZÉOLOGHIN)</t>
-  </si>
-  <si>
-    <t>044 (BOANGTENGA)</t>
-  </si>
-  <si>
     <t>044</t>
   </si>
   <si>
-    <t>080 (LIGUIDI-MALGUEM)</t>
-  </si>
-  <si>
     <t>080</t>
   </si>
   <si>
-    <t>117 (KOUPÉLA)</t>
-  </si>
-  <si>
     <t>117</t>
   </si>
   <si>
-    <t>058 (KOUPÉLA)</t>
-  </si>
-  <si>
     <t>058</t>
   </si>
   <si>
-    <t>006 (NIOUGHIN)</t>
-  </si>
-  <si>
-    <t>006 (NABÉRÈ)</t>
-  </si>
-  <si>
-    <t>024 (DARKADOUGOU)</t>
-  </si>
-  <si>
     <t>024</t>
   </si>
   <si>
-    <t>015 (BONDIGUI)</t>
-  </si>
-  <si>
     <t>015</t>
   </si>
   <si>
@@ -1592,87 +1466,39 @@
     <t>027 (WAN)</t>
   </si>
   <si>
-    <t>006 (KONSABLA)</t>
-  </si>
-  <si>
-    <t>012 (BAGANE)</t>
-  </si>
-  <si>
     <t>012</t>
   </si>
   <si>
-    <t>018 (LOTO)</t>
-  </si>
-  <si>
     <t>018</t>
   </si>
   <si>
-    <t>024 (BAMAKO)</t>
-  </si>
-  <si>
     <t>030 (BAPLA)</t>
   </si>
   <si>
-    <t>036 (BAPLA)</t>
-  </si>
-  <si>
-    <t>042 (DANKOBLÉ)</t>
-  </si>
-  <si>
     <t>042</t>
   </si>
   <si>
-    <t>049 (COMMUNAL)</t>
-  </si>
-  <si>
-    <t>055 (COMMUNAL)</t>
-  </si>
-  <si>
     <t>055</t>
   </si>
   <si>
-    <t>061 (COMMUNAL)</t>
-  </si>
-  <si>
-    <t>067 (COMMUNAL)</t>
-  </si>
-  <si>
     <t>067</t>
   </si>
   <si>
-    <t>003 (SAPTAN)</t>
-  </si>
-  <si>
     <t>009 (DOLO)</t>
   </si>
   <si>
     <t>009</t>
   </si>
   <si>
-    <t>015 (NICÉO)</t>
-  </si>
-  <si>
-    <t>014 (TIANKOURA)</t>
-  </si>
-  <si>
     <t>014</t>
   </si>
   <si>
-    <t>040 (IOLONIORO)</t>
-  </si>
-  <si>
     <t>040</t>
   </si>
   <si>
-    <t>002 (DOLO)</t>
-  </si>
-  <si>
     <t>002</t>
   </si>
   <si>
-    <t>025 (POKOURO)</t>
-  </si>
-  <si>
     <t>025</t>
   </si>
   <si>
@@ -1682,21 +1508,9 @@
     <t>031</t>
   </si>
   <si>
-    <t>037 (SANGOLO)</t>
-  </si>
-  <si>
     <t>037</t>
   </si>
   <si>
-    <t>045 (IOLONIORO)</t>
-  </si>
-  <si>
-    <t>003 (TIANKOURA)</t>
-  </si>
-  <si>
-    <t>011 (TIANKOURA)</t>
-  </si>
-  <si>
     <t>011</t>
   </si>
   <si>
@@ -1706,77 +1520,253 @@
     <t>017</t>
   </si>
   <si>
-    <t>023 (TIOYO)</t>
-  </si>
-  <si>
     <t>023</t>
   </si>
   <si>
     <t>015 (LOTO)</t>
   </si>
   <si>
-    <t>033 (BAPLA)</t>
-  </si>
-  <si>
     <t>033</t>
   </si>
   <si>
-    <t>051 (COMMUNAL)</t>
-  </si>
-  <si>
-    <t>070 (COMMUNAL)</t>
-  </si>
-  <si>
     <t>070</t>
   </si>
   <si>
-    <t>013 (ORKOUNOU)</t>
-  </si>
-  <si>
     <t>013</t>
   </si>
   <si>
-    <t>022 (WERINKERA)</t>
-  </si>
-  <si>
     <t>022</t>
   </si>
   <si>
     <t>019 (WERINKERA)</t>
   </si>
   <si>
-    <t>038 (BAPLA)</t>
-  </si>
-  <si>
     <t>038</t>
   </si>
   <si>
-    <t>017 (BONDIGUI)</t>
-  </si>
-  <si>
     <t>001 (NAHIRINDON)</t>
   </si>
   <si>
     <t>N.TONHERO</t>
+  </si>
+  <si>
+    <t>(Sept 2023) Burkina Faso TAS FL - 3. Formulaire Résultat FTS V2</t>
+  </si>
+  <si>
+    <t>bf_lf_tas1_202309_3_resultats_fts_v2</t>
+  </si>
+  <si>
+    <t>006 (LIOULGOU)</t>
+  </si>
+  <si>
+    <t>016 (TÉNOAGHIN)</t>
+  </si>
+  <si>
+    <t>039 (PASSEM-NOGUIN)</t>
+  </si>
+  <si>
+    <t>061 (OUARGHIN)</t>
+  </si>
+  <si>
+    <t>071 (NENEOGO)</t>
+  </si>
+  <si>
+    <t>010 (GANDEONGO-BOGODIN)</t>
+  </si>
+  <si>
+    <t>026 (DONSIN)</t>
+  </si>
+  <si>
+    <t>036 (DAPELGO)</t>
+  </si>
+  <si>
+    <t>047 (BILANGHIN)</t>
+  </si>
+  <si>
+    <t>069 (BELEMBOULGHIN)</t>
+  </si>
+  <si>
+    <t>004 (KOMBESTENGA)</t>
+  </si>
+  <si>
+    <t>016 (GONSIN)</t>
+  </si>
+  <si>
+    <t>028 (TOUGMETENGA)</t>
+  </si>
+  <si>
+    <t>039 (NÉDOGUIN)</t>
+  </si>
+  <si>
+    <t>003 (DALTENGA)</t>
+  </si>
+  <si>
+    <t>019 (BALGO)</t>
+  </si>
+  <si>
+    <t>030 (POÉTENGA)</t>
+  </si>
+  <si>
+    <t>016 (BOANGTENGA-PEULH)</t>
+  </si>
+  <si>
+    <t>039 (NOHOUNGOU)</t>
+  </si>
+  <si>
+    <t>061 (SECTEUR 5 (061))</t>
+  </si>
+  <si>
+    <t>071 (SECTEUR 5 (071))</t>
+  </si>
+  <si>
+    <t>081 (SECTEUR 2 (081))</t>
+  </si>
+  <si>
+    <t>092 (SECTEUR 1 (092))</t>
+  </si>
+  <si>
+    <t>102 (SECTEUR 1 (102))</t>
+  </si>
+  <si>
+    <t>114 (SECTEUR 3 (114))</t>
+  </si>
+  <si>
+    <t>124 (SECTEUR 3 (124))</t>
+  </si>
+  <si>
+    <t>004 (TEYOGODIN)</t>
+  </si>
+  <si>
+    <t>045 (BELEMBAOGHIN)</t>
+  </si>
+  <si>
+    <t>007 (KOULWOKO)</t>
+  </si>
+  <si>
+    <t>049 (ZOMKOME)</t>
+  </si>
+  <si>
+    <t>007 (BIK-BASKOURÉ)</t>
+  </si>
+  <si>
+    <t>044 (KOKEMNORÉ)</t>
+  </si>
+  <si>
+    <t>080 (SECTEUR 4 (080))</t>
+  </si>
+  <si>
+    <t>117 (SECTEUR 3)</t>
+  </si>
+  <si>
+    <t>058 (NIOUGHIN)</t>
+  </si>
+  <si>
+    <t>006 (ZORKOUM)</t>
+  </si>
+  <si>
+    <t>006 (NABÉRÉ)</t>
+  </si>
+  <si>
+    <t>024 (DIARKADOUGOU)</t>
+  </si>
+  <si>
+    <t>015 (KOBOGO)</t>
+  </si>
+  <si>
+    <t>006 (TAMPÉ)</t>
+  </si>
+  <si>
+    <t>012 (KOMPIELI-WAPALI)</t>
+  </si>
+  <si>
+    <t>018 (SÉOURÉGANE)</t>
+  </si>
+  <si>
+    <t>024 (VOUKOUN)</t>
+  </si>
+  <si>
+    <t>036 (NANÉ)</t>
+  </si>
+  <si>
+    <t>042 (MOUVIELO)</t>
+  </si>
+  <si>
+    <t>049 (SECTEUR 4 (049))</t>
+  </si>
+  <si>
+    <t>055 (SECTEUR 6)</t>
+  </si>
+  <si>
+    <t>061 (SECTEUR 2)</t>
+  </si>
+  <si>
+    <t>067 (SECTEUR 7 (067))</t>
+  </si>
+  <si>
+    <t>003 (DOLINDIA)</t>
+  </si>
+  <si>
+    <t>015 (HÈLLÈLÈ)</t>
+  </si>
+  <si>
+    <t>014 (KOULOH)</t>
+  </si>
+  <si>
+    <t>040 (OUIDIARA)</t>
+  </si>
+  <si>
+    <t>002 (OLBONTOUNÉ)</t>
+  </si>
+  <si>
+    <t>025 (N.TONHERO)</t>
+  </si>
+  <si>
+    <t>037 (GONGONTIANAO)</t>
+  </si>
+  <si>
+    <t>045 (DJONLÈRA)</t>
+  </si>
+  <si>
+    <t>003 (BOMBARA)</t>
+  </si>
+  <si>
+    <t>011 (NIEMPIRO)</t>
+  </si>
+  <si>
+    <t>023 (BALAMBIRO)</t>
+  </si>
+  <si>
+    <t>033 (BAPLA-BIRIFOR)</t>
+  </si>
+  <si>
+    <t>051 (SECTEUR 4)</t>
+  </si>
+  <si>
+    <t>070 (SECTEUR 7)</t>
+  </si>
+  <si>
+    <t>013 (ELFORA)</t>
+  </si>
+  <si>
+    <t>022 (POYO)</t>
+  </si>
+  <si>
+    <t>038 (NAVIELGANE)</t>
+  </si>
+  <si>
+    <t>017 (OBRO)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="12">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1917,54 +1907,54 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3288,11 +3278,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:H284"/>
+  <dimension ref="A1:H280"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D1" activeCellId="1" sqref="B1:B1048576 D1:H1048576"/>
+      <pane ySplit="1" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A54" sqref="A54:XFD280"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -3747,10 +3737,10 @@
         <v>182</v>
       </c>
       <c r="B47" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C47" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D47" t="s">
         <v>242</v>
@@ -3761,10 +3751,10 @@
         <v>182</v>
       </c>
       <c r="B48" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="C48" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D48" t="s">
         <v>241</v>
@@ -3808,13 +3798,13 @@
         <v>183</v>
       </c>
       <c r="B54" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="C54" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="E54" t="s">
-        <v>356</v>
+        <v>241</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -3822,13 +3812,13 @@
         <v>183</v>
       </c>
       <c r="B55" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="C55" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="E55" t="s">
-        <v>356</v>
+        <v>241</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -3836,13 +3826,13 @@
         <v>183</v>
       </c>
       <c r="B56" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="C56" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="E56" t="s">
-        <v>356</v>
+        <v>241</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -3850,13 +3840,13 @@
         <v>183</v>
       </c>
       <c r="B57" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="C57" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="E57" t="s">
-        <v>356</v>
+        <v>241</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -3864,13 +3854,13 @@
         <v>183</v>
       </c>
       <c r="B58" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="C58" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="E58" t="s">
-        <v>356</v>
+        <v>241</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -3878,13 +3868,13 @@
         <v>183</v>
       </c>
       <c r="B59" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="C59" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="E59" t="s">
-        <v>356</v>
+        <v>242</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -3892,13 +3882,13 @@
         <v>183</v>
       </c>
       <c r="B60" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="C60" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="E60" t="s">
-        <v>357</v>
+        <v>242</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -3906,13 +3896,13 @@
         <v>183</v>
       </c>
       <c r="B61" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="C61" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="E61" t="s">
-        <v>357</v>
+        <v>242</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -3920,13 +3910,13 @@
         <v>183</v>
       </c>
       <c r="B62" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="C62" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="E62" t="s">
-        <v>357</v>
+        <v>242</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -3934,13 +3924,13 @@
         <v>183</v>
       </c>
       <c r="B63" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="C63" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="E63" t="s">
-        <v>357</v>
+        <v>242</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -3948,13 +3938,13 @@
         <v>183</v>
       </c>
       <c r="B64" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="C64" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="E64" t="s">
-        <v>357</v>
+        <v>242</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -4102,10 +4092,10 @@
         <v>184</v>
       </c>
       <c r="B76" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C76" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="F76" t="s">
         <v>249</v>
@@ -4116,10 +4106,10 @@
         <v>184</v>
       </c>
       <c r="B77" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C77" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F77" t="s">
         <v>249</v>
@@ -4130,13 +4120,13 @@
         <v>184</v>
       </c>
       <c r="B78" t="s">
-        <v>278</v>
+        <v>258</v>
       </c>
       <c r="C78" t="s">
-        <v>278</v>
+        <v>258</v>
       </c>
       <c r="F78" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -4144,10 +4134,10 @@
         <v>184</v>
       </c>
       <c r="B79" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C79" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="F79" t="s">
         <v>244</v>
@@ -4158,10 +4148,10 @@
         <v>184</v>
       </c>
       <c r="B80" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C80" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="F80" t="s">
         <v>244</v>
@@ -4172,10 +4162,10 @@
         <v>184</v>
       </c>
       <c r="B81" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C81" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="F81" t="s">
         <v>244</v>
@@ -4186,10 +4176,10 @@
         <v>184</v>
       </c>
       <c r="B82" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C82" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="F82" t="s">
         <v>244</v>
@@ -4200,10 +4190,10 @@
         <v>184</v>
       </c>
       <c r="B83" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C83" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="F83" t="s">
         <v>244</v>
@@ -4214,10 +4204,10 @@
         <v>184</v>
       </c>
       <c r="B84" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C84" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F84" t="s">
         <v>244</v>
@@ -4228,13 +4218,13 @@
         <v>184</v>
       </c>
       <c r="B85" t="s">
-        <v>264</v>
+        <v>245</v>
       </c>
       <c r="C85" t="s">
-        <v>264</v>
+        <v>245</v>
       </c>
       <c r="F85" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -4242,10 +4232,10 @@
         <v>184</v>
       </c>
       <c r="B86" t="s">
-        <v>245</v>
+        <v>265</v>
       </c>
       <c r="C86" t="s">
-        <v>245</v>
+        <v>265</v>
       </c>
       <c r="F86" t="s">
         <v>245</v>
@@ -4256,10 +4246,10 @@
         <v>184</v>
       </c>
       <c r="B87" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C87" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F87" t="s">
         <v>245</v>
@@ -4270,13 +4260,13 @@
         <v>184</v>
       </c>
       <c r="B88" t="s">
-        <v>266</v>
+        <v>356</v>
       </c>
       <c r="C88" t="s">
-        <v>266</v>
+        <v>356</v>
       </c>
       <c r="F88" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -4284,10 +4274,10 @@
         <v>184</v>
       </c>
       <c r="B89" t="s">
-        <v>358</v>
+        <v>250</v>
       </c>
       <c r="C89" t="s">
-        <v>358</v>
+        <v>250</v>
       </c>
       <c r="F89" t="s">
         <v>250</v>
@@ -4298,10 +4288,10 @@
         <v>184</v>
       </c>
       <c r="B90" t="s">
-        <v>250</v>
+        <v>280</v>
       </c>
       <c r="C90" t="s">
-        <v>250</v>
+        <v>280</v>
       </c>
       <c r="F90" t="s">
         <v>250</v>
@@ -4312,10 +4302,10 @@
         <v>184</v>
       </c>
       <c r="B91" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C91" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="F91" t="s">
         <v>250</v>
@@ -4326,10 +4316,10 @@
         <v>184</v>
       </c>
       <c r="B92" t="s">
-        <v>242</v>
+        <v>282</v>
       </c>
       <c r="C92" t="s">
-        <v>242</v>
+        <v>282</v>
       </c>
       <c r="F92" t="s">
         <v>250</v>
@@ -4340,13 +4330,13 @@
         <v>184</v>
       </c>
       <c r="B93" t="s">
-        <v>359</v>
+        <v>246</v>
       </c>
       <c r="C93" t="s">
-        <v>359</v>
+        <v>246</v>
       </c>
       <c r="F93" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -4354,13 +4344,13 @@
         <v>184</v>
       </c>
       <c r="B94" t="s">
-        <v>282</v>
+        <v>267</v>
       </c>
       <c r="C94" t="s">
-        <v>282</v>
+        <v>267</v>
       </c>
       <c r="F94" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -4368,10 +4358,10 @@
         <v>184</v>
       </c>
       <c r="B95" t="s">
-        <v>246</v>
+        <v>268</v>
       </c>
       <c r="C95" t="s">
-        <v>246</v>
+        <v>268</v>
       </c>
       <c r="F95" t="s">
         <v>246</v>
@@ -4382,265 +4372,265 @@
         <v>184</v>
       </c>
       <c r="B96" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="C96" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="F96" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="97" spans="1:6">
+    <row r="97" spans="1:7">
       <c r="A97" t="s">
         <v>184</v>
       </c>
       <c r="B97" t="s">
-        <v>268</v>
+        <v>283</v>
       </c>
       <c r="C97" t="s">
-        <v>268</v>
+        <v>283</v>
       </c>
       <c r="F97" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" t="s">
         <v>184</v>
       </c>
       <c r="B98" t="s">
-        <v>269</v>
+        <v>242</v>
       </c>
       <c r="C98" t="s">
-        <v>269</v>
+        <v>242</v>
       </c>
       <c r="F98" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" t="s">
         <v>184</v>
       </c>
       <c r="B99" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C99" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="F99" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="100" spans="1:6">
+    <row r="100" spans="1:7">
       <c r="A100" t="s">
         <v>184</v>
       </c>
       <c r="B100" t="s">
-        <v>242</v>
+        <v>357</v>
       </c>
       <c r="C100" t="s">
-        <v>242</v>
+        <v>357</v>
       </c>
       <c r="F100" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="101" spans="1:6">
+    <row r="101" spans="1:7">
       <c r="A101" t="s">
         <v>184</v>
       </c>
       <c r="B101" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="C101" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="F101" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="102" spans="1:6">
+    <row r="102" spans="1:7">
       <c r="A102" t="s">
         <v>184</v>
       </c>
       <c r="B102" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="C102" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="F102" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="103" spans="1:6">
+    <row r="103" spans="1:7">
       <c r="A103" t="s">
         <v>184</v>
       </c>
       <c r="B103" t="s">
-        <v>360</v>
+        <v>252</v>
       </c>
       <c r="C103" t="s">
-        <v>360</v>
+        <v>252</v>
       </c>
       <c r="F103" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" t="s">
         <v>184</v>
       </c>
       <c r="B104" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="C104" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F104" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7">
       <c r="A105" t="s">
         <v>184</v>
       </c>
       <c r="B105" t="s">
-        <v>288</v>
+        <v>270</v>
       </c>
       <c r="C105" t="s">
-        <v>288</v>
+        <v>270</v>
       </c>
       <c r="F105" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7">
       <c r="A106" t="s">
         <v>184</v>
       </c>
       <c r="B106" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C106" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="F106" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7">
       <c r="A107" t="s">
         <v>184</v>
       </c>
       <c r="B107" t="s">
-        <v>252</v>
+        <v>271</v>
       </c>
       <c r="C107" t="s">
-        <v>252</v>
+        <v>271</v>
       </c>
       <c r="F107" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7">
       <c r="A108" t="s">
         <v>184</v>
       </c>
       <c r="B108" t="s">
-        <v>288</v>
+        <v>358</v>
       </c>
       <c r="C108" t="s">
-        <v>288</v>
+        <v>358</v>
       </c>
       <c r="F108" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7">
       <c r="A109" t="s">
         <v>184</v>
       </c>
       <c r="B109" t="s">
-        <v>270</v>
+        <v>289</v>
       </c>
       <c r="C109" t="s">
-        <v>270</v>
+        <v>289</v>
       </c>
       <c r="F109" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7">
       <c r="A110" t="s">
         <v>184</v>
       </c>
       <c r="B110" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="C110" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="F110" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6">
-      <c r="A111" t="s">
-        <v>184</v>
-      </c>
-      <c r="B111" t="s">
-        <v>271</v>
-      </c>
-      <c r="C111" t="s">
-        <v>271</v>
-      </c>
-      <c r="F111" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7">
       <c r="A112" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B112" t="s">
-        <v>361</v>
+        <v>294</v>
       </c>
       <c r="C112" t="s">
-        <v>361</v>
-      </c>
-      <c r="F112" t="s">
-        <v>253</v>
+        <v>294</v>
+      </c>
+      <c r="G112" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="113" spans="1:7">
       <c r="A113" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B113" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="C113" t="s">
-        <v>289</v>
-      </c>
-      <c r="F113" t="s">
-        <v>253</v>
+        <v>295</v>
+      </c>
+      <c r="G113" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="114" spans="1:7">
       <c r="A114" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B114" t="s">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="C114" t="s">
-        <v>253</v>
-      </c>
-      <c r="F114" t="s">
-        <v>253</v>
+        <v>260</v>
+      </c>
+      <c r="G114" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7">
+      <c r="A115" t="s">
+        <v>185</v>
+      </c>
+      <c r="B115" t="s">
+        <v>296</v>
+      </c>
+      <c r="C115" t="s">
+        <v>296</v>
+      </c>
+      <c r="G115" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="116" spans="1:7">
@@ -4648,13 +4638,13 @@
         <v>185</v>
       </c>
       <c r="B116" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="C116" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="G116" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
     </row>
     <row r="117" spans="1:7">
@@ -4662,13 +4652,13 @@
         <v>185</v>
       </c>
       <c r="B117" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="C117" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="G117" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="118" spans="1:7">
@@ -4676,13 +4666,13 @@
         <v>185</v>
       </c>
       <c r="B118" t="s">
-        <v>260</v>
+        <v>272</v>
       </c>
       <c r="C118" t="s">
-        <v>260</v>
+        <v>272</v>
       </c>
       <c r="G118" t="s">
-        <v>260</v>
+        <v>272</v>
       </c>
     </row>
     <row r="119" spans="1:7">
@@ -4690,13 +4680,13 @@
         <v>185</v>
       </c>
       <c r="B119" t="s">
-        <v>296</v>
+        <v>326</v>
       </c>
       <c r="C119" t="s">
-        <v>296</v>
+        <v>326</v>
       </c>
       <c r="G119" t="s">
-        <v>260</v>
+        <v>283</v>
       </c>
     </row>
     <row r="120" spans="1:7">
@@ -4704,13 +4694,13 @@
         <v>185</v>
       </c>
       <c r="B120" t="s">
-        <v>297</v>
+        <v>327</v>
       </c>
       <c r="C120" t="s">
-        <v>297</v>
+        <v>327</v>
       </c>
       <c r="G120" t="s">
-        <v>260</v>
+        <v>283</v>
       </c>
     </row>
     <row r="121" spans="1:7">
@@ -4718,13 +4708,13 @@
         <v>185</v>
       </c>
       <c r="B121" t="s">
-        <v>298</v>
+        <v>243</v>
       </c>
       <c r="C121" t="s">
-        <v>298</v>
+        <v>243</v>
       </c>
       <c r="G121" t="s">
-        <v>260</v>
+        <v>243</v>
       </c>
     </row>
     <row r="122" spans="1:7">
@@ -4732,13 +4722,13 @@
         <v>185</v>
       </c>
       <c r="B122" t="s">
-        <v>272</v>
+        <v>290</v>
       </c>
       <c r="C122" t="s">
-        <v>272</v>
+        <v>290</v>
       </c>
       <c r="G122" t="s">
-        <v>272</v>
+        <v>243</v>
       </c>
     </row>
     <row r="123" spans="1:7">
@@ -4746,13 +4736,13 @@
         <v>185</v>
       </c>
       <c r="B123" t="s">
-        <v>327</v>
+        <v>291</v>
       </c>
       <c r="C123" t="s">
-        <v>327</v>
+        <v>291</v>
       </c>
       <c r="G123" t="s">
-        <v>283</v>
+        <v>243</v>
       </c>
     </row>
     <row r="124" spans="1:7">
@@ -4760,13 +4750,13 @@
         <v>185</v>
       </c>
       <c r="B124" t="s">
-        <v>331</v>
+        <v>316</v>
       </c>
       <c r="C124" t="s">
-        <v>331</v>
+        <v>316</v>
       </c>
       <c r="G124" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
     </row>
     <row r="125" spans="1:7">
@@ -4774,13 +4764,13 @@
         <v>185</v>
       </c>
       <c r="B125" t="s">
-        <v>243</v>
+        <v>328</v>
       </c>
       <c r="C125" t="s">
-        <v>243</v>
+        <v>328</v>
       </c>
       <c r="G125" t="s">
-        <v>243</v>
+        <v>261</v>
       </c>
     </row>
     <row r="126" spans="1:7">
@@ -4788,13 +4778,13 @@
         <v>185</v>
       </c>
       <c r="B126" t="s">
-        <v>290</v>
+        <v>330</v>
       </c>
       <c r="C126" t="s">
-        <v>290</v>
+        <v>330</v>
       </c>
       <c r="G126" t="s">
-        <v>243</v>
+        <v>261</v>
       </c>
     </row>
     <row r="127" spans="1:7">
@@ -4802,13 +4792,13 @@
         <v>185</v>
       </c>
       <c r="B127" t="s">
-        <v>291</v>
+        <v>359</v>
       </c>
       <c r="C127" t="s">
-        <v>291</v>
+        <v>359</v>
       </c>
       <c r="G127" t="s">
-        <v>243</v>
+        <v>261</v>
       </c>
     </row>
     <row r="128" spans="1:7">
@@ -4816,13 +4806,13 @@
         <v>185</v>
       </c>
       <c r="B128" t="s">
-        <v>316</v>
+        <v>299</v>
       </c>
       <c r="C128" t="s">
-        <v>316</v>
+        <v>299</v>
       </c>
       <c r="G128" t="s">
-        <v>274</v>
+        <v>261</v>
       </c>
     </row>
     <row r="129" spans="1:7">
@@ -4830,10 +4820,10 @@
         <v>185</v>
       </c>
       <c r="B129" t="s">
-        <v>328</v>
+        <v>350</v>
       </c>
       <c r="C129" t="s">
-        <v>328</v>
+        <v>350</v>
       </c>
       <c r="G129" t="s">
         <v>261</v>
@@ -4844,10 +4834,10 @@
         <v>185</v>
       </c>
       <c r="B130" t="s">
-        <v>330</v>
+        <v>360</v>
       </c>
       <c r="C130" t="s">
-        <v>330</v>
+        <v>360</v>
       </c>
       <c r="G130" t="s">
         <v>261</v>
@@ -4858,13 +4848,13 @@
         <v>185</v>
       </c>
       <c r="B131" t="s">
-        <v>362</v>
+        <v>300</v>
       </c>
       <c r="C131" t="s">
-        <v>362</v>
+        <v>300</v>
       </c>
       <c r="G131" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="132" spans="1:7">
@@ -4872,13 +4862,13 @@
         <v>185</v>
       </c>
       <c r="B132" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="C132" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="G132" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
     </row>
     <row r="133" spans="1:7">
@@ -4886,13 +4876,13 @@
         <v>185</v>
       </c>
       <c r="B133" t="s">
-        <v>350</v>
+        <v>249</v>
       </c>
       <c r="C133" t="s">
-        <v>350</v>
+        <v>249</v>
       </c>
       <c r="G133" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
     </row>
     <row r="134" spans="1:7">
@@ -4900,13 +4890,13 @@
         <v>185</v>
       </c>
       <c r="B134" t="s">
-        <v>363</v>
+        <v>317</v>
       </c>
       <c r="C134" t="s">
-        <v>363</v>
+        <v>317</v>
       </c>
       <c r="G134" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
     </row>
     <row r="135" spans="1:7">
@@ -4914,13 +4904,13 @@
         <v>185</v>
       </c>
       <c r="B135" t="s">
-        <v>300</v>
+        <v>279</v>
       </c>
       <c r="C135" t="s">
-        <v>300</v>
+        <v>279</v>
       </c>
       <c r="G135" t="s">
-        <v>262</v>
+        <v>356</v>
       </c>
     </row>
     <row r="136" spans="1:7">
@@ -4928,13 +4918,13 @@
         <v>185</v>
       </c>
       <c r="B136" t="s">
-        <v>292</v>
+        <v>245</v>
       </c>
       <c r="C136" t="s">
-        <v>292</v>
+        <v>245</v>
       </c>
       <c r="G136" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
     </row>
     <row r="137" spans="1:7">
@@ -4942,13 +4932,13 @@
         <v>185</v>
       </c>
       <c r="B137" t="s">
-        <v>249</v>
+        <v>303</v>
       </c>
       <c r="C137" t="s">
-        <v>249</v>
+        <v>303</v>
       </c>
       <c r="G137" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
     </row>
     <row r="138" spans="1:7">
@@ -4956,13 +4946,13 @@
         <v>185</v>
       </c>
       <c r="B138" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="C138" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="G138" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="139" spans="1:7">
@@ -4970,13 +4960,13 @@
         <v>185</v>
       </c>
       <c r="B139" t="s">
-        <v>279</v>
+        <v>322</v>
       </c>
       <c r="C139" t="s">
-        <v>279</v>
+        <v>322</v>
       </c>
       <c r="G139" t="s">
-        <v>358</v>
+        <v>250</v>
       </c>
     </row>
     <row r="140" spans="1:7">
@@ -4984,13 +4974,13 @@
         <v>185</v>
       </c>
       <c r="B140" t="s">
-        <v>245</v>
+        <v>323</v>
       </c>
       <c r="C140" t="s">
-        <v>245</v>
+        <v>323</v>
       </c>
       <c r="G140" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
     </row>
     <row r="141" spans="1:7">
@@ -4998,13 +4988,13 @@
         <v>185</v>
       </c>
       <c r="B141" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="C141" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="G141" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="142" spans="1:7">
@@ -5012,13 +5002,13 @@
         <v>185</v>
       </c>
       <c r="B142" t="s">
-        <v>322</v>
+        <v>307</v>
       </c>
       <c r="C142" t="s">
-        <v>322</v>
+        <v>307</v>
       </c>
       <c r="G142" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
     </row>
     <row r="143" spans="1:7">
@@ -5026,13 +5016,13 @@
         <v>185</v>
       </c>
       <c r="B143" t="s">
-        <v>323</v>
+        <v>275</v>
       </c>
       <c r="C143" t="s">
-        <v>323</v>
+        <v>275</v>
       </c>
       <c r="G143" t="s">
-        <v>250</v>
+        <v>275</v>
       </c>
     </row>
     <row r="144" spans="1:7">
@@ -5040,13 +5030,13 @@
         <v>185</v>
       </c>
       <c r="B144" t="s">
-        <v>334</v>
+        <v>324</v>
       </c>
       <c r="C144" t="s">
-        <v>334</v>
+        <v>324</v>
       </c>
       <c r="G144" t="s">
-        <v>250</v>
+        <v>280</v>
       </c>
     </row>
     <row r="145" spans="1:7">
@@ -5054,13 +5044,13 @@
         <v>185</v>
       </c>
       <c r="B145" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="C145" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="G145" t="s">
-        <v>250</v>
+        <v>277</v>
       </c>
     </row>
     <row r="146" spans="1:7">
@@ -5068,13 +5058,13 @@
         <v>185</v>
       </c>
       <c r="B146" t="s">
-        <v>306</v>
+        <v>318</v>
       </c>
       <c r="C146" t="s">
-        <v>306</v>
+        <v>318</v>
       </c>
       <c r="G146" t="s">
-        <v>246</v>
+        <v>277</v>
       </c>
     </row>
     <row r="147" spans="1:7">
@@ -5082,13 +5072,13 @@
         <v>185</v>
       </c>
       <c r="B147" t="s">
-        <v>307</v>
+        <v>319</v>
       </c>
       <c r="C147" t="s">
-        <v>307</v>
+        <v>319</v>
       </c>
       <c r="G147" t="s">
-        <v>246</v>
+        <v>277</v>
       </c>
     </row>
     <row r="148" spans="1:7">
@@ -5096,13 +5086,13 @@
         <v>185</v>
       </c>
       <c r="B148" t="s">
-        <v>275</v>
+        <v>301</v>
       </c>
       <c r="C148" t="s">
-        <v>275</v>
+        <v>301</v>
       </c>
       <c r="G148" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
     </row>
     <row r="149" spans="1:7">
@@ -5110,13 +5100,13 @@
         <v>185</v>
       </c>
       <c r="B149" t="s">
-        <v>324</v>
+        <v>361</v>
       </c>
       <c r="C149" t="s">
-        <v>324</v>
+        <v>361</v>
       </c>
       <c r="G149" t="s">
-        <v>280</v>
+        <v>242</v>
       </c>
     </row>
     <row r="150" spans="1:7">
@@ -5124,13 +5114,13 @@
         <v>185</v>
       </c>
       <c r="B150" t="s">
-        <v>276</v>
+        <v>362</v>
       </c>
       <c r="C150" t="s">
-        <v>276</v>
+        <v>362</v>
       </c>
       <c r="G150" t="s">
-        <v>276</v>
+        <v>242</v>
       </c>
     </row>
     <row r="151" spans="1:7">
@@ -5138,13 +5128,13 @@
         <v>185</v>
       </c>
       <c r="B151" t="s">
-        <v>318</v>
+        <v>363</v>
       </c>
       <c r="C151" t="s">
-        <v>318</v>
+        <v>363</v>
       </c>
       <c r="G151" t="s">
-        <v>277</v>
+        <v>242</v>
       </c>
     </row>
     <row r="152" spans="1:7">
@@ -5152,13 +5142,13 @@
         <v>185</v>
       </c>
       <c r="B152" t="s">
-        <v>319</v>
+        <v>329</v>
       </c>
       <c r="C152" t="s">
-        <v>319</v>
+        <v>329</v>
       </c>
       <c r="G152" t="s">
-        <v>277</v>
+        <v>242</v>
       </c>
     </row>
     <row r="153" spans="1:7">
@@ -5166,13 +5156,13 @@
         <v>185</v>
       </c>
       <c r="B153" t="s">
-        <v>301</v>
+        <v>364</v>
       </c>
       <c r="C153" t="s">
-        <v>301</v>
+        <v>364</v>
       </c>
       <c r="G153" t="s">
-        <v>263</v>
+        <v>242</v>
       </c>
     </row>
     <row r="154" spans="1:7">
@@ -5180,10 +5170,10 @@
         <v>185</v>
       </c>
       <c r="B154" t="s">
-        <v>281</v>
+        <v>365</v>
       </c>
       <c r="C154" t="s">
-        <v>281</v>
+        <v>365</v>
       </c>
       <c r="G154" t="s">
         <v>242</v>
@@ -5194,10 +5184,10 @@
         <v>185</v>
       </c>
       <c r="B155" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="C155" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="G155" t="s">
         <v>242</v>
@@ -5208,10 +5198,10 @@
         <v>185</v>
       </c>
       <c r="B156" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C156" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="G156" t="s">
         <v>242</v>
@@ -5222,10 +5212,10 @@
         <v>185</v>
       </c>
       <c r="B157" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C157" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="G157" t="s">
         <v>242</v>
@@ -5236,13 +5226,13 @@
         <v>185</v>
       </c>
       <c r="B158" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="C158" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="G158" t="s">
-        <v>242</v>
+        <v>284</v>
       </c>
     </row>
     <row r="159" spans="1:7">
@@ -5250,13 +5240,13 @@
         <v>185</v>
       </c>
       <c r="B159" t="s">
-        <v>367</v>
+        <v>284</v>
       </c>
       <c r="C159" t="s">
-        <v>367</v>
+        <v>284</v>
       </c>
       <c r="G159" t="s">
-        <v>242</v>
+        <v>284</v>
       </c>
     </row>
     <row r="160" spans="1:7">
@@ -5264,13 +5254,13 @@
         <v>185</v>
       </c>
       <c r="B160" t="s">
-        <v>368</v>
+        <v>264</v>
       </c>
       <c r="C160" t="s">
-        <v>368</v>
+        <v>264</v>
       </c>
       <c r="G160" t="s">
-        <v>242</v>
+        <v>264</v>
       </c>
     </row>
     <row r="161" spans="1:7">
@@ -5278,13 +5268,13 @@
         <v>185</v>
       </c>
       <c r="B161" t="s">
-        <v>369</v>
+        <v>302</v>
       </c>
       <c r="C161" t="s">
-        <v>369</v>
+        <v>302</v>
       </c>
       <c r="G161" t="s">
-        <v>242</v>
+        <v>264</v>
       </c>
     </row>
     <row r="162" spans="1:7">
@@ -5292,13 +5282,13 @@
         <v>185</v>
       </c>
       <c r="B162" t="s">
-        <v>370</v>
+        <v>293</v>
       </c>
       <c r="C162" t="s">
-        <v>370</v>
+        <v>293</v>
       </c>
       <c r="G162" t="s">
-        <v>242</v>
+        <v>255</v>
       </c>
     </row>
     <row r="163" spans="1:7">
@@ -5306,13 +5296,13 @@
         <v>185</v>
       </c>
       <c r="B163" t="s">
-        <v>284</v>
+        <v>256</v>
       </c>
       <c r="C163" t="s">
-        <v>284</v>
+        <v>256</v>
       </c>
       <c r="G163" t="s">
-        <v>284</v>
+        <v>256</v>
       </c>
     </row>
     <row r="164" spans="1:7">
@@ -5320,13 +5310,13 @@
         <v>185</v>
       </c>
       <c r="B164" t="s">
-        <v>371</v>
+        <v>273</v>
       </c>
       <c r="C164" t="s">
-        <v>371</v>
+        <v>273</v>
       </c>
       <c r="G164" t="s">
-        <v>284</v>
+        <v>273</v>
       </c>
     </row>
     <row r="165" spans="1:7">
@@ -5334,13 +5324,13 @@
         <v>185</v>
       </c>
       <c r="B165" t="s">
-        <v>264</v>
+        <v>304</v>
       </c>
       <c r="C165" t="s">
-        <v>264</v>
+        <v>304</v>
       </c>
       <c r="G165" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="166" spans="1:7">
@@ -5348,13 +5338,13 @@
         <v>185</v>
       </c>
       <c r="B166" t="s">
-        <v>302</v>
+        <v>281</v>
       </c>
       <c r="C166" t="s">
-        <v>302</v>
+        <v>281</v>
       </c>
       <c r="G166" t="s">
-        <v>264</v>
+        <v>281</v>
       </c>
     </row>
     <row r="167" spans="1:7">
@@ -5362,13 +5352,13 @@
         <v>185</v>
       </c>
       <c r="B167" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="C167" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="G167" t="s">
-        <v>255</v>
+        <v>357</v>
       </c>
     </row>
     <row r="168" spans="1:7">
@@ -5376,13 +5366,13 @@
         <v>185</v>
       </c>
       <c r="B168" t="s">
-        <v>256</v>
+        <v>311</v>
       </c>
       <c r="C168" t="s">
-        <v>256</v>
+        <v>311</v>
       </c>
       <c r="G168" t="s">
-        <v>256</v>
+        <v>270</v>
       </c>
     </row>
     <row r="169" spans="1:7">
@@ -5390,13 +5380,13 @@
         <v>185</v>
       </c>
       <c r="B169" t="s">
-        <v>273</v>
+        <v>338</v>
       </c>
       <c r="C169" t="s">
-        <v>273</v>
+        <v>338</v>
       </c>
       <c r="G169" t="s">
-        <v>273</v>
+        <v>358</v>
       </c>
     </row>
     <row r="170" spans="1:7">
@@ -5404,13 +5394,13 @@
         <v>185</v>
       </c>
       <c r="B170" t="s">
-        <v>304</v>
+        <v>444</v>
       </c>
       <c r="C170" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="G170" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
     </row>
     <row r="171" spans="1:7">
@@ -5418,13 +5408,13 @@
         <v>185</v>
       </c>
       <c r="B171" t="s">
-        <v>287</v>
+        <v>309</v>
       </c>
       <c r="C171" t="s">
-        <v>287</v>
+        <v>309</v>
       </c>
       <c r="G171" t="s">
-        <v>281</v>
+        <v>268</v>
       </c>
     </row>
     <row r="172" spans="1:7">
@@ -5432,13 +5422,13 @@
         <v>185</v>
       </c>
       <c r="B172" t="s">
-        <v>285</v>
+        <v>268</v>
       </c>
       <c r="C172" t="s">
-        <v>285</v>
+        <v>268</v>
       </c>
       <c r="G172" t="s">
-        <v>360</v>
+        <v>268</v>
       </c>
     </row>
     <row r="173" spans="1:7">
@@ -5446,13 +5436,13 @@
         <v>185</v>
       </c>
       <c r="B173" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="C173" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="G173" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
     </row>
     <row r="174" spans="1:7">
@@ -5460,13 +5450,13 @@
         <v>185</v>
       </c>
       <c r="B174" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C174" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="G174" t="s">
-        <v>361</v>
+        <v>289</v>
       </c>
     </row>
     <row r="175" spans="1:7">
@@ -5474,13 +5464,13 @@
         <v>185</v>
       </c>
       <c r="B175" t="s">
-        <v>514</v>
+        <v>332</v>
       </c>
       <c r="C175" t="s">
-        <v>308</v>
+        <v>332</v>
       </c>
       <c r="G175" t="s">
-        <v>267</v>
+        <v>252</v>
       </c>
     </row>
     <row r="176" spans="1:7">
@@ -5488,13 +5478,13 @@
         <v>185</v>
       </c>
       <c r="B176" t="s">
-        <v>309</v>
+        <v>333</v>
       </c>
       <c r="C176" t="s">
-        <v>309</v>
+        <v>333</v>
       </c>
       <c r="G176" t="s">
-        <v>268</v>
+        <v>252</v>
       </c>
     </row>
     <row r="177" spans="1:7">
@@ -5502,13 +5492,13 @@
         <v>185</v>
       </c>
       <c r="B177" t="s">
-        <v>268</v>
+        <v>334</v>
       </c>
       <c r="C177" t="s">
-        <v>268</v>
+        <v>334</v>
       </c>
       <c r="G177" t="s">
-        <v>268</v>
+        <v>252</v>
       </c>
     </row>
     <row r="178" spans="1:7">
@@ -5516,13 +5506,13 @@
         <v>185</v>
       </c>
       <c r="B178" t="s">
-        <v>305</v>
+        <v>335</v>
       </c>
       <c r="C178" t="s">
-        <v>305</v>
+        <v>335</v>
       </c>
       <c r="G178" t="s">
-        <v>266</v>
+        <v>252</v>
       </c>
     </row>
     <row r="179" spans="1:7">
@@ -5530,13 +5520,13 @@
         <v>185</v>
       </c>
       <c r="B179" t="s">
-        <v>339</v>
+        <v>325</v>
       </c>
       <c r="C179" t="s">
-        <v>339</v>
+        <v>325</v>
       </c>
       <c r="G179" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
     </row>
     <row r="180" spans="1:7">
@@ -5544,13 +5534,13 @@
         <v>185</v>
       </c>
       <c r="B180" t="s">
-        <v>332</v>
+        <v>282</v>
       </c>
       <c r="C180" t="s">
-        <v>332</v>
+        <v>282</v>
       </c>
       <c r="G180" t="s">
-        <v>252</v>
+        <v>282</v>
       </c>
     </row>
     <row r="181" spans="1:7">
@@ -5558,13 +5548,13 @@
         <v>185</v>
       </c>
       <c r="B181" t="s">
-        <v>333</v>
+        <v>312</v>
       </c>
       <c r="C181" t="s">
-        <v>333</v>
+        <v>312</v>
       </c>
       <c r="G181" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
     </row>
     <row r="182" spans="1:7">
@@ -5572,13 +5562,13 @@
         <v>185</v>
       </c>
       <c r="B182" t="s">
-        <v>335</v>
+        <v>313</v>
       </c>
       <c r="C182" t="s">
-        <v>335</v>
+        <v>313</v>
       </c>
       <c r="G182" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
     </row>
     <row r="183" spans="1:7">
@@ -5586,13 +5576,13 @@
         <v>185</v>
       </c>
       <c r="B183" t="s">
-        <v>337</v>
+        <v>314</v>
       </c>
       <c r="C183" t="s">
-        <v>337</v>
+        <v>314</v>
       </c>
       <c r="G183" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
     </row>
     <row r="184" spans="1:7">
@@ -5600,13 +5590,13 @@
         <v>185</v>
       </c>
       <c r="B184" t="s">
-        <v>325</v>
+        <v>315</v>
       </c>
       <c r="C184" t="s">
-        <v>325</v>
+        <v>315</v>
       </c>
       <c r="G184" t="s">
-        <v>359</v>
+        <v>271</v>
       </c>
     </row>
     <row r="185" spans="1:7">
@@ -5614,13 +5604,13 @@
         <v>185</v>
       </c>
       <c r="B185" t="s">
-        <v>321</v>
+        <v>271</v>
       </c>
       <c r="C185" t="s">
-        <v>321</v>
+        <v>271</v>
       </c>
       <c r="G185" t="s">
-        <v>282</v>
+        <v>271</v>
       </c>
     </row>
     <row r="186" spans="1:7">
@@ -5628,13 +5618,13 @@
         <v>185</v>
       </c>
       <c r="B186" t="s">
-        <v>312</v>
+        <v>257</v>
       </c>
       <c r="C186" t="s">
-        <v>312</v>
+        <v>257</v>
       </c>
       <c r="G186" t="s">
-        <v>247</v>
+        <v>257</v>
       </c>
     </row>
     <row r="187" spans="1:7">
@@ -5642,13 +5632,13 @@
         <v>185</v>
       </c>
       <c r="B187" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="C187" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="G187" t="s">
-        <v>247</v>
+        <v>269</v>
       </c>
     </row>
     <row r="188" spans="1:7">
@@ -5656,13 +5646,13 @@
         <v>185</v>
       </c>
       <c r="B188" t="s">
-        <v>314</v>
+        <v>269</v>
       </c>
       <c r="C188" t="s">
-        <v>314</v>
+        <v>269</v>
       </c>
       <c r="G188" t="s">
-        <v>247</v>
+        <v>269</v>
       </c>
     </row>
     <row r="189" spans="1:7">
@@ -5670,13 +5660,13 @@
         <v>185</v>
       </c>
       <c r="B189" t="s">
-        <v>315</v>
+        <v>340</v>
       </c>
       <c r="C189" t="s">
-        <v>315</v>
+        <v>340</v>
       </c>
       <c r="G189" t="s">
-        <v>271</v>
+        <v>253</v>
       </c>
     </row>
     <row r="190" spans="1:7">
@@ -5684,13 +5674,13 @@
         <v>185</v>
       </c>
       <c r="B190" t="s">
-        <v>271</v>
+        <v>286</v>
       </c>
       <c r="C190" t="s">
-        <v>271</v>
+        <v>286</v>
       </c>
       <c r="G190" t="s">
-        <v>271</v>
+        <v>286</v>
       </c>
     </row>
     <row r="191" spans="1:7">
@@ -5698,13 +5688,13 @@
         <v>185</v>
       </c>
       <c r="B191" t="s">
-        <v>257</v>
+        <v>320</v>
       </c>
       <c r="C191" t="s">
-        <v>257</v>
+        <v>320</v>
       </c>
       <c r="G191" t="s">
-        <v>257</v>
+        <v>278</v>
       </c>
     </row>
     <row r="192" spans="1:7">
@@ -5712,13 +5702,13 @@
         <v>185</v>
       </c>
       <c r="B192" t="s">
-        <v>310</v>
+        <v>278</v>
       </c>
       <c r="C192" t="s">
-        <v>310</v>
+        <v>278</v>
       </c>
       <c r="G192" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5726,13 +5716,13 @@
         <v>185</v>
       </c>
       <c r="B193" t="s">
-        <v>269</v>
+        <v>336</v>
       </c>
       <c r="C193" t="s">
-        <v>269</v>
+        <v>336</v>
       </c>
       <c r="G193" t="s">
-        <v>269</v>
+        <v>288</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5740,13 +5730,13 @@
         <v>185</v>
       </c>
       <c r="B194" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="C194" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="G194" t="s">
-        <v>253</v>
+        <v>288</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5754,69 +5744,69 @@
         <v>185</v>
       </c>
       <c r="B195" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C195" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="G195" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="196" spans="1:8">
-      <c r="A196" t="s">
-        <v>185</v>
-      </c>
-      <c r="B196" t="s">
-        <v>320</v>
-      </c>
-      <c r="C196" t="s">
-        <v>320</v>
-      </c>
-      <c r="G196" t="s">
-        <v>278</v>
+        <v>287</v>
       </c>
     </row>
     <row r="197" spans="1:8">
       <c r="A197" t="s">
-        <v>185</v>
+        <v>235</v>
       </c>
       <c r="B197" t="s">
-        <v>278</v>
+        <v>369</v>
       </c>
       <c r="C197" t="s">
-        <v>278</v>
-      </c>
-      <c r="G197" t="s">
-        <v>278</v>
+        <v>370</v>
+      </c>
+      <c r="H197" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="198" spans="1:8">
       <c r="A198" t="s">
-        <v>185</v>
+        <v>235</v>
       </c>
       <c r="B198" t="s">
-        <v>326</v>
+        <v>371</v>
       </c>
       <c r="C198" t="s">
-        <v>326</v>
-      </c>
-      <c r="G198" t="s">
-        <v>288</v>
+        <v>372</v>
+      </c>
+      <c r="H198" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="199" spans="1:8">
       <c r="A199" t="s">
-        <v>185</v>
+        <v>235</v>
       </c>
       <c r="B199" t="s">
-        <v>336</v>
+        <v>447</v>
       </c>
       <c r="C199" t="s">
-        <v>336</v>
-      </c>
-      <c r="G199" t="s">
-        <v>288</v>
+        <v>373</v>
+      </c>
+      <c r="H199" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8">
+      <c r="A200" t="s">
+        <v>235</v>
+      </c>
+      <c r="B200" t="s">
+        <v>448</v>
+      </c>
+      <c r="C200" t="s">
+        <v>374</v>
+      </c>
+      <c r="H200" t="s">
+        <v>319</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5824,13 +5814,13 @@
         <v>235</v>
       </c>
       <c r="B201" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="C201" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="H201" t="s">
-        <v>272</v>
+        <v>249</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5838,13 +5828,13 @@
         <v>235</v>
       </c>
       <c r="B202" t="s">
-        <v>374</v>
+        <v>449</v>
       </c>
       <c r="C202" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="H202" t="s">
-        <v>273</v>
+        <v>317</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5852,13 +5842,13 @@
         <v>235</v>
       </c>
       <c r="B203" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="C203" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="H203" t="s">
-        <v>318</v>
+        <v>278</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5866,13 +5856,13 @@
         <v>235</v>
       </c>
       <c r="B204" t="s">
-        <v>378</v>
+        <v>450</v>
       </c>
       <c r="C204" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="H204" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -5880,13 +5870,13 @@
         <v>235</v>
       </c>
       <c r="B205" t="s">
-        <v>380</v>
+        <v>451</v>
       </c>
       <c r="C205" t="s">
         <v>381</v>
       </c>
       <c r="H205" t="s">
-        <v>249</v>
+        <v>316</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -5894,13 +5884,13 @@
         <v>235</v>
       </c>
       <c r="B206" t="s">
+        <v>452</v>
+      </c>
+      <c r="C206" t="s">
         <v>382</v>
       </c>
-      <c r="C206" t="s">
-        <v>383</v>
-      </c>
       <c r="H206" t="s">
-        <v>317</v>
+        <v>325</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -5908,13 +5898,13 @@
         <v>235</v>
       </c>
       <c r="B207" t="s">
-        <v>384</v>
+        <v>453</v>
       </c>
       <c r="C207" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="H207" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -5922,13 +5912,13 @@
         <v>235</v>
       </c>
       <c r="B208" t="s">
-        <v>386</v>
+        <v>454</v>
       </c>
       <c r="C208" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="H208" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -5936,13 +5926,13 @@
         <v>235</v>
       </c>
       <c r="B209" t="s">
-        <v>388</v>
+        <v>455</v>
       </c>
       <c r="C209" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="H209" t="s">
-        <v>316</v>
+        <v>323</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -5950,13 +5940,13 @@
         <v>235</v>
       </c>
       <c r="B210" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="C210" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="H210" t="s">
-        <v>325</v>
+        <v>276</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -5964,13 +5954,13 @@
         <v>235</v>
       </c>
       <c r="B211" t="s">
-        <v>392</v>
+        <v>456</v>
       </c>
       <c r="C211" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="H211" t="s">
-        <v>279</v>
+        <v>322</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -5978,13 +5968,13 @@
         <v>235</v>
       </c>
       <c r="B212" t="s">
-        <v>394</v>
+        <v>457</v>
       </c>
       <c r="C212" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="H212" t="s">
-        <v>324</v>
+        <v>333</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -5992,13 +5982,13 @@
         <v>235</v>
       </c>
       <c r="B213" t="s">
-        <v>396</v>
+        <v>458</v>
       </c>
       <c r="C213" t="s">
-        <v>397</v>
+        <v>374</v>
       </c>
       <c r="H213" t="s">
-        <v>323</v>
+        <v>332</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -6006,13 +5996,13 @@
         <v>235</v>
       </c>
       <c r="B214" t="s">
-        <v>398</v>
+        <v>459</v>
       </c>
       <c r="C214" t="s">
-        <v>399</v>
+        <v>390</v>
       </c>
       <c r="H214" t="s">
-        <v>276</v>
+        <v>335</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -6020,13 +6010,13 @@
         <v>235</v>
       </c>
       <c r="B215" t="s">
-        <v>400</v>
+        <v>460</v>
       </c>
       <c r="C215" t="s">
-        <v>401</v>
+        <v>377</v>
       </c>
       <c r="H215" t="s">
-        <v>322</v>
+        <v>336</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6034,13 +6024,13 @@
         <v>235</v>
       </c>
       <c r="B216" t="s">
-        <v>402</v>
+        <v>461</v>
       </c>
       <c r="C216" t="s">
-        <v>403</v>
+        <v>391</v>
       </c>
       <c r="H216" t="s">
-        <v>333</v>
+        <v>339</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6048,13 +6038,13 @@
         <v>235</v>
       </c>
       <c r="B217" t="s">
-        <v>404</v>
+        <v>462</v>
       </c>
       <c r="C217" t="s">
-        <v>379</v>
+        <v>392</v>
       </c>
       <c r="H217" t="s">
-        <v>332</v>
+        <v>340</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6062,13 +6052,13 @@
         <v>235</v>
       </c>
       <c r="B218" t="s">
-        <v>405</v>
+        <v>463</v>
       </c>
       <c r="C218" t="s">
-        <v>406</v>
+        <v>393</v>
       </c>
       <c r="H218" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6076,13 +6066,13 @@
         <v>235</v>
       </c>
       <c r="B219" t="s">
-        <v>407</v>
+        <v>394</v>
       </c>
       <c r="C219" t="s">
-        <v>383</v>
+        <v>395</v>
       </c>
       <c r="H219" t="s">
-        <v>336</v>
+        <v>275</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6090,13 +6080,13 @@
         <v>235</v>
       </c>
       <c r="B220" t="s">
-        <v>408</v>
+        <v>464</v>
       </c>
       <c r="C220" t="s">
-        <v>409</v>
+        <v>374</v>
       </c>
       <c r="H220" t="s">
-        <v>339</v>
+        <v>327</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6104,13 +6094,13 @@
         <v>235</v>
       </c>
       <c r="B221" t="s">
-        <v>410</v>
+        <v>396</v>
       </c>
       <c r="C221" t="s">
-        <v>411</v>
+        <v>397</v>
       </c>
       <c r="H221" t="s">
-        <v>340</v>
+        <v>286</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6118,13 +6108,13 @@
         <v>235</v>
       </c>
       <c r="B222" t="s">
-        <v>412</v>
+        <v>465</v>
       </c>
       <c r="C222" t="s">
-        <v>413</v>
+        <v>377</v>
       </c>
       <c r="H222" t="s">
-        <v>338</v>
+        <v>285</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6132,13 +6122,13 @@
         <v>235</v>
       </c>
       <c r="B223" t="s">
-        <v>414</v>
+        <v>398</v>
       </c>
       <c r="C223" t="s">
-        <v>415</v>
+        <v>399</v>
       </c>
       <c r="H223" t="s">
-        <v>275</v>
+        <v>284</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6146,13 +6136,13 @@
         <v>235</v>
       </c>
       <c r="B224" t="s">
-        <v>416</v>
+        <v>466</v>
       </c>
       <c r="C224" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="H224" t="s">
-        <v>327</v>
+        <v>366</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6160,13 +6150,13 @@
         <v>235</v>
       </c>
       <c r="B225" t="s">
-        <v>417</v>
+        <v>467</v>
       </c>
       <c r="C225" t="s">
-        <v>418</v>
+        <v>381</v>
       </c>
       <c r="H225" t="s">
-        <v>286</v>
+        <v>367</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6174,13 +6164,13 @@
         <v>235</v>
       </c>
       <c r="B226" t="s">
-        <v>419</v>
+        <v>468</v>
       </c>
       <c r="C226" t="s">
-        <v>383</v>
+        <v>400</v>
       </c>
       <c r="H226" t="s">
-        <v>285</v>
+        <v>363</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6188,13 +6178,13 @@
         <v>235</v>
       </c>
       <c r="B227" t="s">
-        <v>420</v>
+        <v>469</v>
       </c>
       <c r="C227" t="s">
-        <v>421</v>
+        <v>401</v>
       </c>
       <c r="H227" t="s">
-        <v>284</v>
+        <v>361</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6202,13 +6192,13 @@
         <v>235</v>
       </c>
       <c r="B228" t="s">
-        <v>422</v>
+        <v>470</v>
       </c>
       <c r="C228" t="s">
-        <v>387</v>
+        <v>402</v>
       </c>
       <c r="H228" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6216,13 +6206,13 @@
         <v>235</v>
       </c>
       <c r="B229" t="s">
-        <v>423</v>
+        <v>471</v>
       </c>
       <c r="C229" t="s">
-        <v>389</v>
+        <v>403</v>
       </c>
       <c r="H229" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -6230,13 +6220,13 @@
         <v>235</v>
       </c>
       <c r="B230" t="s">
-        <v>424</v>
+        <v>472</v>
       </c>
       <c r="C230" t="s">
-        <v>425</v>
+        <v>404</v>
       </c>
       <c r="H230" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6244,13 +6234,13 @@
         <v>235</v>
       </c>
       <c r="B231" t="s">
-        <v>426</v>
+        <v>473</v>
       </c>
       <c r="C231" t="s">
-        <v>427</v>
+        <v>389</v>
       </c>
       <c r="H231" t="s">
-        <v>364</v>
+        <v>282</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -6258,13 +6248,13 @@
         <v>235</v>
       </c>
       <c r="B232" t="s">
-        <v>428</v>
+        <v>474</v>
       </c>
       <c r="C232" t="s">
-        <v>429</v>
+        <v>405</v>
       </c>
       <c r="H232" t="s">
-        <v>365</v>
+        <v>321</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -6272,13 +6262,13 @@
         <v>235</v>
       </c>
       <c r="B233" t="s">
-        <v>430</v>
+        <v>475</v>
       </c>
       <c r="C233" t="s">
-        <v>431</v>
+        <v>406</v>
       </c>
       <c r="H233" t="s">
-        <v>367</v>
+        <v>334</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -6286,13 +6276,13 @@
         <v>235</v>
       </c>
       <c r="B234" t="s">
-        <v>432</v>
+        <v>476</v>
       </c>
       <c r="C234" t="s">
-        <v>433</v>
+        <v>407</v>
       </c>
       <c r="H234" t="s">
-        <v>368</v>
+        <v>337</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6300,13 +6290,13 @@
         <v>235</v>
       </c>
       <c r="B235" t="s">
-        <v>434</v>
+        <v>477</v>
       </c>
       <c r="C235" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="H235" t="s">
-        <v>282</v>
+        <v>326</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6314,13 +6304,13 @@
         <v>235</v>
       </c>
       <c r="B236" t="s">
-        <v>435</v>
+        <v>478</v>
       </c>
       <c r="C236" t="s">
-        <v>436</v>
+        <v>408</v>
       </c>
       <c r="H236" t="s">
-        <v>321</v>
+        <v>331</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6328,13 +6318,13 @@
         <v>235</v>
       </c>
       <c r="B237" t="s">
-        <v>437</v>
+        <v>479</v>
       </c>
       <c r="C237" t="s">
-        <v>438</v>
+        <v>409</v>
       </c>
       <c r="H237" t="s">
-        <v>334</v>
+        <v>368</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6342,13 +6332,13 @@
         <v>235</v>
       </c>
       <c r="B238" t="s">
-        <v>439</v>
+        <v>480</v>
       </c>
       <c r="C238" t="s">
-        <v>440</v>
+        <v>410</v>
       </c>
       <c r="H238" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6356,13 +6346,13 @@
         <v>235</v>
       </c>
       <c r="B239" t="s">
-        <v>441</v>
+        <v>481</v>
       </c>
       <c r="C239" t="s">
-        <v>438</v>
+        <v>411</v>
       </c>
       <c r="H239" t="s">
-        <v>326</v>
+        <v>281</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6370,13 +6360,13 @@
         <v>235</v>
       </c>
       <c r="B240" t="s">
-        <v>442</v>
+        <v>482</v>
       </c>
       <c r="C240" t="s">
-        <v>443</v>
+        <v>373</v>
       </c>
       <c r="H240" t="s">
-        <v>331</v>
+        <v>287</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6384,13 +6374,13 @@
         <v>235</v>
       </c>
       <c r="B241" t="s">
-        <v>444</v>
+        <v>483</v>
       </c>
       <c r="C241" t="s">
-        <v>445</v>
+        <v>373</v>
       </c>
       <c r="H241" t="s">
-        <v>371</v>
+        <v>293</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6398,13 +6388,13 @@
         <v>235</v>
       </c>
       <c r="B242" t="s">
-        <v>446</v>
+        <v>484</v>
       </c>
       <c r="C242" t="s">
-        <v>447</v>
+        <v>412</v>
       </c>
       <c r="H242" t="s">
-        <v>329</v>
+        <v>292</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6412,13 +6402,13 @@
         <v>235</v>
       </c>
       <c r="B243" t="s">
-        <v>448</v>
+        <v>485</v>
       </c>
       <c r="C243" t="s">
-        <v>449</v>
+        <v>413</v>
       </c>
       <c r="H243" t="s">
-        <v>281</v>
+        <v>290</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6426,13 +6416,13 @@
         <v>235</v>
       </c>
       <c r="B244" t="s">
-        <v>450</v>
+        <v>414</v>
       </c>
       <c r="C244" t="s">
-        <v>377</v>
+        <v>415</v>
       </c>
       <c r="H244" t="s">
-        <v>287</v>
+        <v>243</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -6440,13 +6430,13 @@
         <v>235</v>
       </c>
       <c r="B245" t="s">
-        <v>451</v>
+        <v>416</v>
       </c>
       <c r="C245" t="s">
-        <v>377</v>
+        <v>397</v>
       </c>
       <c r="H245" t="s">
-        <v>293</v>
+        <v>257</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -6454,13 +6444,13 @@
         <v>235</v>
       </c>
       <c r="B246" t="s">
-        <v>452</v>
+        <v>486</v>
       </c>
       <c r="C246" t="s">
-        <v>453</v>
+        <v>373</v>
       </c>
       <c r="H246" t="s">
-        <v>292</v>
+        <v>301</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -6468,13 +6458,13 @@
         <v>235</v>
       </c>
       <c r="B247" t="s">
-        <v>454</v>
+        <v>487</v>
       </c>
       <c r="C247" t="s">
-        <v>455</v>
+        <v>417</v>
       </c>
       <c r="H247" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6482,13 +6472,13 @@
         <v>235</v>
       </c>
       <c r="B248" t="s">
-        <v>456</v>
+        <v>488</v>
       </c>
       <c r="C248" t="s">
-        <v>457</v>
+        <v>418</v>
       </c>
       <c r="H248" t="s">
-        <v>243</v>
+        <v>302</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -6496,13 +6486,13 @@
         <v>235</v>
       </c>
       <c r="B249" t="s">
-        <v>458</v>
+        <v>489</v>
       </c>
       <c r="C249" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="H249" t="s">
-        <v>257</v>
+        <v>295</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -6510,13 +6500,13 @@
         <v>235</v>
       </c>
       <c r="B250" t="s">
-        <v>459</v>
+        <v>419</v>
       </c>
       <c r="C250" t="s">
-        <v>377</v>
+        <v>393</v>
       </c>
       <c r="H250" t="s">
-        <v>301</v>
+        <v>260</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -6524,13 +6514,13 @@
         <v>235</v>
       </c>
       <c r="B251" t="s">
-        <v>460</v>
+        <v>490</v>
       </c>
       <c r="C251" t="s">
-        <v>461</v>
+        <v>384</v>
       </c>
       <c r="H251" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -6538,13 +6528,13 @@
         <v>235</v>
       </c>
       <c r="B252" t="s">
-        <v>462</v>
+        <v>491</v>
       </c>
       <c r="C252" t="s">
-        <v>463</v>
+        <v>420</v>
       </c>
       <c r="H252" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -6552,13 +6542,13 @@
         <v>235</v>
       </c>
       <c r="B253" t="s">
-        <v>464</v>
+        <v>492</v>
       </c>
       <c r="C253" t="s">
-        <v>453</v>
+        <v>407</v>
       </c>
       <c r="H253" t="s">
-        <v>295</v>
+        <v>359</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -6566,13 +6556,13 @@
         <v>235</v>
       </c>
       <c r="B254" t="s">
-        <v>465</v>
+        <v>493</v>
       </c>
       <c r="C254" t="s">
-        <v>413</v>
+        <v>421</v>
       </c>
       <c r="H254" t="s">
-        <v>260</v>
+        <v>299</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -6580,13 +6570,13 @@
         <v>235</v>
       </c>
       <c r="B255" t="s">
-        <v>466</v>
+        <v>494</v>
       </c>
       <c r="C255" t="s">
-        <v>395</v>
+        <v>380</v>
       </c>
       <c r="H255" t="s">
-        <v>297</v>
+        <v>328</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -6594,13 +6584,13 @@
         <v>235</v>
       </c>
       <c r="B256" t="s">
-        <v>467</v>
+        <v>495</v>
       </c>
       <c r="C256" t="s">
-        <v>468</v>
+        <v>422</v>
       </c>
       <c r="H256" t="s">
-        <v>300</v>
+        <v>360</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -6608,13 +6598,13 @@
         <v>235</v>
       </c>
       <c r="B257" t="s">
-        <v>469</v>
+        <v>496</v>
       </c>
       <c r="C257" t="s">
-        <v>440</v>
+        <v>391</v>
       </c>
       <c r="H257" t="s">
-        <v>362</v>
+        <v>305</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -6622,13 +6612,13 @@
         <v>235</v>
       </c>
       <c r="B258" t="s">
-        <v>470</v>
+        <v>423</v>
       </c>
       <c r="C258" t="s">
-        <v>471</v>
+        <v>424</v>
       </c>
       <c r="H258" t="s">
-        <v>299</v>
+        <v>245</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -6636,13 +6626,13 @@
         <v>235</v>
       </c>
       <c r="B259" t="s">
-        <v>472</v>
+        <v>497</v>
       </c>
       <c r="C259" t="s">
-        <v>387</v>
+        <v>413</v>
       </c>
       <c r="H259" t="s">
-        <v>328</v>
+        <v>304</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -6650,13 +6640,13 @@
         <v>235</v>
       </c>
       <c r="B260" t="s">
-        <v>473</v>
+        <v>498</v>
       </c>
       <c r="C260" t="s">
-        <v>474</v>
+        <v>425</v>
       </c>
       <c r="H260" t="s">
-        <v>363</v>
+        <v>313</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -6664,13 +6654,13 @@
         <v>235</v>
       </c>
       <c r="B261" t="s">
-        <v>475</v>
+        <v>499</v>
       </c>
       <c r="C261" t="s">
-        <v>409</v>
+        <v>426</v>
       </c>
       <c r="H261" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -6678,13 +6668,13 @@
         <v>235</v>
       </c>
       <c r="B262" t="s">
-        <v>476</v>
+        <v>500</v>
       </c>
       <c r="C262" t="s">
-        <v>477</v>
+        <v>427</v>
       </c>
       <c r="H262" t="s">
-        <v>245</v>
+        <v>303</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -6692,13 +6682,13 @@
         <v>235</v>
       </c>
       <c r="B263" t="s">
-        <v>478</v>
+        <v>501</v>
       </c>
       <c r="C263" t="s">
-        <v>455</v>
+        <v>428</v>
       </c>
       <c r="H263" t="s">
-        <v>304</v>
+        <v>444</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -6706,13 +6696,13 @@
         <v>235</v>
       </c>
       <c r="B264" t="s">
-        <v>479</v>
+        <v>429</v>
       </c>
       <c r="C264" t="s">
-        <v>480</v>
+        <v>430</v>
       </c>
       <c r="H264" t="s">
-        <v>313</v>
+        <v>268</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -6720,13 +6710,13 @@
         <v>235</v>
       </c>
       <c r="B265" t="s">
-        <v>481</v>
+        <v>502</v>
       </c>
       <c r="C265" t="s">
-        <v>482</v>
+        <v>431</v>
       </c>
       <c r="H265" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -6734,13 +6724,13 @@
         <v>235</v>
       </c>
       <c r="B266" t="s">
-        <v>483</v>
+        <v>503</v>
       </c>
       <c r="C266" t="s">
-        <v>484</v>
+        <v>405</v>
       </c>
       <c r="H266" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -6748,13 +6738,13 @@
         <v>235</v>
       </c>
       <c r="B267" t="s">
-        <v>485</v>
+        <v>504</v>
       </c>
       <c r="C267" t="s">
-        <v>486</v>
+        <v>391</v>
       </c>
       <c r="H267" t="s">
-        <v>514</v>
+        <v>312</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -6762,13 +6752,13 @@
         <v>235</v>
       </c>
       <c r="B268" t="s">
-        <v>487</v>
+        <v>505</v>
       </c>
       <c r="C268" t="s">
-        <v>488</v>
+        <v>432</v>
       </c>
       <c r="H268" t="s">
-        <v>268</v>
+        <v>314</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -6776,13 +6766,13 @@
         <v>235</v>
       </c>
       <c r="B269" t="s">
-        <v>489</v>
+        <v>433</v>
       </c>
       <c r="C269" t="s">
-        <v>490</v>
+        <v>434</v>
       </c>
       <c r="H269" t="s">
-        <v>309</v>
+        <v>271</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -6790,13 +6780,13 @@
         <v>235</v>
       </c>
       <c r="B270" t="s">
-        <v>491</v>
+        <v>506</v>
       </c>
       <c r="C270" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="H270" t="s">
-        <v>306</v>
+        <v>315</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -6804,13 +6794,13 @@
         <v>235</v>
       </c>
       <c r="B271" t="s">
-        <v>492</v>
+        <v>436</v>
       </c>
       <c r="C271" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="H271" t="s">
-        <v>312</v>
+        <v>264</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -6818,13 +6808,13 @@
         <v>235</v>
       </c>
       <c r="B272" t="s">
-        <v>493</v>
+        <v>507</v>
       </c>
       <c r="C272" t="s">
-        <v>494</v>
+        <v>437</v>
       </c>
       <c r="H272" t="s">
-        <v>314</v>
+        <v>296</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -6832,13 +6822,13 @@
         <v>235</v>
       </c>
       <c r="B273" t="s">
-        <v>495</v>
+        <v>508</v>
       </c>
       <c r="C273" t="s">
-        <v>496</v>
+        <v>379</v>
       </c>
       <c r="H273" t="s">
-        <v>271</v>
+        <v>330</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -6846,13 +6836,13 @@
         <v>235</v>
       </c>
       <c r="B274" t="s">
-        <v>497</v>
+        <v>509</v>
       </c>
       <c r="C274" t="s">
-        <v>498</v>
+        <v>438</v>
       </c>
       <c r="H274" t="s">
-        <v>315</v>
+        <v>350</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -6860,13 +6850,13 @@
         <v>235</v>
       </c>
       <c r="B275" t="s">
-        <v>499</v>
+        <v>510</v>
       </c>
       <c r="C275" t="s">
-        <v>455</v>
+        <v>439</v>
       </c>
       <c r="H275" t="s">
-        <v>264</v>
+        <v>311</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -6874,13 +6864,13 @@
         <v>235</v>
       </c>
       <c r="B276" t="s">
-        <v>500</v>
+        <v>511</v>
       </c>
       <c r="C276" t="s">
-        <v>501</v>
+        <v>440</v>
       </c>
       <c r="H276" t="s">
-        <v>296</v>
+        <v>310</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -6888,13 +6878,13 @@
         <v>235</v>
       </c>
       <c r="B277" t="s">
-        <v>502</v>
+        <v>441</v>
       </c>
       <c r="C277" t="s">
-        <v>385</v>
+        <v>392</v>
       </c>
       <c r="H277" t="s">
-        <v>330</v>
+        <v>269</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -6902,13 +6892,13 @@
         <v>235</v>
       </c>
       <c r="B278" t="s">
-        <v>503</v>
+        <v>512</v>
       </c>
       <c r="C278" t="s">
-        <v>504</v>
+        <v>442</v>
       </c>
       <c r="H278" t="s">
-        <v>350</v>
+        <v>298</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -6916,13 +6906,13 @@
         <v>235</v>
       </c>
       <c r="B279" t="s">
-        <v>505</v>
+        <v>513</v>
       </c>
       <c r="C279" t="s">
-        <v>506</v>
+        <v>434</v>
       </c>
       <c r="H279" t="s">
-        <v>311</v>
+        <v>291</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -6930,73 +6920,17 @@
         <v>235</v>
       </c>
       <c r="B280" t="s">
-        <v>507</v>
+        <v>443</v>
       </c>
       <c r="C280" t="s">
-        <v>508</v>
+        <v>387</v>
       </c>
       <c r="H280" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="281" spans="1:8">
-      <c r="A281" t="s">
-        <v>235</v>
-      </c>
-      <c r="B281" t="s">
-        <v>509</v>
-      </c>
-      <c r="C281" t="s">
-        <v>411</v>
-      </c>
-      <c r="H281" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="282" spans="1:8">
-      <c r="A282" t="s">
-        <v>235</v>
-      </c>
-      <c r="B282" t="s">
-        <v>510</v>
-      </c>
-      <c r="C282" t="s">
-        <v>511</v>
-      </c>
-      <c r="H282" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="283" spans="1:8">
-      <c r="A283" t="s">
-        <v>235</v>
-      </c>
-      <c r="B283" t="s">
-        <v>512</v>
-      </c>
-      <c r="C283" t="s">
-        <v>496</v>
-      </c>
-      <c r="H283" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="284" spans="1:8">
-      <c r="A284" t="s">
-        <v>235</v>
-      </c>
-      <c r="B284" t="s">
-        <v>513</v>
-      </c>
-      <c r="C284" t="s">
-        <v>399</v>
-      </c>
-      <c r="H284" t="s">
         <v>256</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="11" type="noConversion"/>
+  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <ignoredErrors>
@@ -7010,7 +6944,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -7035,11 +6969,11 @@
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="23" t="s">
-        <v>355</v>
-      </c>
-      <c r="B2" s="22" t="s">
-        <v>354</v>
+      <c r="A2" s="22" t="s">
+        <v>445</v>
+      </c>
+      <c r="B2" s="23" t="s">
+        <v>446</v>
       </c>
       <c r="C2" s="21" t="s">
         <v>240</v>

--- a/LF/TAS/Burkina Faso/2023/september/bf_lf_tas1_202309_3_resultats_fts.xlsx
+++ b/LF/TAS/Burkina Faso/2023/september/bf_lf_tas1_202309_3_resultats_fts.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\LF\TAS\Burkina Faso\2023\september\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63385F7C-36F7-473E-A348-6A6C4575932F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83C6860B-C385-4896-9300-DF62ABEDF84C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1380" yWindow="3405" windowWidth="28800" windowHeight="15435" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1289" uniqueCount="514">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1289" uniqueCount="512">
   <si>
     <t>type</t>
   </si>
@@ -1277,12 +1277,6 @@
     <t>d_numero_ordre_grappe</t>
   </si>
   <si>
-    <t>CENTRE EST</t>
-  </si>
-  <si>
-    <t>SUD OUEST</t>
-  </si>
-  <si>
     <t>DIMISTENGA</t>
   </si>
   <si>
@@ -1550,12 +1544,6 @@
     <t>N.TONHERO</t>
   </si>
   <si>
-    <t>(Sept 2023) Burkina Faso TAS FL - 3. Formulaire Résultat FTS V2</t>
-  </si>
-  <si>
-    <t>bf_lf_tas1_202309_3_resultats_fts_v2</t>
-  </si>
-  <si>
     <t>006 (LIOULGOU)</t>
   </si>
   <si>
@@ -1755,6 +1743,12 @@
   </si>
   <si>
     <t>017 (OBRO)</t>
+  </si>
+  <si>
+    <t>(Sept 2023) Burkina Faso TAS FL - 3. Formulaire Résultat FTS V2.1</t>
+  </si>
+  <si>
+    <t>bf_lf_tas1_202309_3_resultats_fts_v2_1</t>
   </si>
 </sst>
 </file>
@@ -2270,7 +2264,7 @@
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C27" sqref="C27"/>
+      <selection pane="bottomRight" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -3281,8 +3275,8 @@
   <dimension ref="A1:H280"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A54" sqref="A54:XFD280"/>
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A44" sqref="A44:XFD280"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -3737,13 +3731,13 @@
         <v>182</v>
       </c>
       <c r="B47" t="s">
-        <v>354</v>
+        <v>241</v>
       </c>
       <c r="C47" t="s">
-        <v>354</v>
+        <v>241</v>
       </c>
       <c r="D47" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -3751,13 +3745,13 @@
         <v>182</v>
       </c>
       <c r="B48" t="s">
-        <v>355</v>
+        <v>242</v>
       </c>
       <c r="C48" t="s">
-        <v>355</v>
+        <v>242</v>
       </c>
       <c r="D48" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -4260,10 +4254,10 @@
         <v>184</v>
       </c>
       <c r="B88" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C88" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="F88" t="s">
         <v>250</v>
@@ -4428,10 +4422,10 @@
         <v>184</v>
       </c>
       <c r="B100" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="C100" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="F100" t="s">
         <v>251</v>
@@ -4540,10 +4534,10 @@
         <v>184</v>
       </c>
       <c r="B108" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="C108" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="F108" t="s">
         <v>253</v>
@@ -4792,10 +4786,10 @@
         <v>185</v>
       </c>
       <c r="B127" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="C127" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="G127" t="s">
         <v>261</v>
@@ -4834,10 +4828,10 @@
         <v>185</v>
       </c>
       <c r="B130" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="C130" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="G130" t="s">
         <v>261</v>
@@ -4910,7 +4904,7 @@
         <v>279</v>
       </c>
       <c r="G135" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="136" spans="1:7">
@@ -5100,10 +5094,10 @@
         <v>185</v>
       </c>
       <c r="B149" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C149" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="G149" t="s">
         <v>242</v>
@@ -5114,10 +5108,10 @@
         <v>185</v>
       </c>
       <c r="B150" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C150" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="G150" t="s">
         <v>242</v>
@@ -5128,10 +5122,10 @@
         <v>185</v>
       </c>
       <c r="B151" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C151" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="G151" t="s">
         <v>242</v>
@@ -5156,10 +5150,10 @@
         <v>185</v>
       </c>
       <c r="B153" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="C153" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="G153" t="s">
         <v>242</v>
@@ -5170,10 +5164,10 @@
         <v>185</v>
       </c>
       <c r="B154" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C154" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="G154" t="s">
         <v>242</v>
@@ -5184,10 +5178,10 @@
         <v>185</v>
       </c>
       <c r="B155" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C155" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="G155" t="s">
         <v>242</v>
@@ -5198,10 +5192,10 @@
         <v>185</v>
       </c>
       <c r="B156" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="C156" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="G156" t="s">
         <v>242</v>
@@ -5212,10 +5206,10 @@
         <v>185</v>
       </c>
       <c r="B157" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="C157" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="G157" t="s">
         <v>242</v>
@@ -5358,7 +5352,7 @@
         <v>285</v>
       </c>
       <c r="G167" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="168" spans="1:7">
@@ -5386,7 +5380,7 @@
         <v>338</v>
       </c>
       <c r="G169" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="170" spans="1:7">
@@ -5394,7 +5388,7 @@
         <v>185</v>
       </c>
       <c r="B170" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="C170" t="s">
         <v>308</v>
@@ -5758,10 +5752,10 @@
         <v>235</v>
       </c>
       <c r="B197" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="C197" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="H197" t="s">
         <v>272</v>
@@ -5772,10 +5766,10 @@
         <v>235</v>
       </c>
       <c r="B198" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C198" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="H198" t="s">
         <v>273</v>
@@ -5786,10 +5780,10 @@
         <v>235</v>
       </c>
       <c r="B199" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="C199" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="H199" t="s">
         <v>318</v>
@@ -5800,10 +5794,10 @@
         <v>235</v>
       </c>
       <c r="B200" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="C200" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="H200" t="s">
         <v>319</v>
@@ -5814,10 +5808,10 @@
         <v>235</v>
       </c>
       <c r="B201" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C201" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="H201" t="s">
         <v>249</v>
@@ -5828,10 +5822,10 @@
         <v>235</v>
       </c>
       <c r="B202" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="C202" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="H202" t="s">
         <v>317</v>
@@ -5842,10 +5836,10 @@
         <v>235</v>
       </c>
       <c r="B203" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C203" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="H203" t="s">
         <v>278</v>
@@ -5856,10 +5850,10 @@
         <v>235</v>
       </c>
       <c r="B204" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="C204" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="H204" t="s">
         <v>320</v>
@@ -5870,10 +5864,10 @@
         <v>235</v>
       </c>
       <c r="B205" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="C205" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="H205" t="s">
         <v>316</v>
@@ -5884,10 +5878,10 @@
         <v>235</v>
       </c>
       <c r="B206" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="C206" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="H206" t="s">
         <v>325</v>
@@ -5898,10 +5892,10 @@
         <v>235</v>
       </c>
       <c r="B207" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="C207" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="H207" t="s">
         <v>279</v>
@@ -5912,10 +5906,10 @@
         <v>235</v>
       </c>
       <c r="B208" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="C208" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="H208" t="s">
         <v>324</v>
@@ -5926,10 +5920,10 @@
         <v>235</v>
       </c>
       <c r="B209" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="C209" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="H209" t="s">
         <v>323</v>
@@ -5940,10 +5934,10 @@
         <v>235</v>
       </c>
       <c r="B210" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="C210" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="H210" t="s">
         <v>276</v>
@@ -5954,10 +5948,10 @@
         <v>235</v>
       </c>
       <c r="B211" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="C211" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="H211" t="s">
         <v>322</v>
@@ -5968,10 +5962,10 @@
         <v>235</v>
       </c>
       <c r="B212" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="C212" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="H212" t="s">
         <v>333</v>
@@ -5982,10 +5976,10 @@
         <v>235</v>
       </c>
       <c r="B213" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="C213" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="H213" t="s">
         <v>332</v>
@@ -5996,10 +5990,10 @@
         <v>235</v>
       </c>
       <c r="B214" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="C214" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="H214" t="s">
         <v>335</v>
@@ -6010,10 +6004,10 @@
         <v>235</v>
       </c>
       <c r="B215" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="C215" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="H215" t="s">
         <v>336</v>
@@ -6024,10 +6018,10 @@
         <v>235</v>
       </c>
       <c r="B216" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="C216" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="H216" t="s">
         <v>339</v>
@@ -6038,10 +6032,10 @@
         <v>235</v>
       </c>
       <c r="B217" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="C217" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="H217" t="s">
         <v>340</v>
@@ -6052,10 +6046,10 @@
         <v>235</v>
       </c>
       <c r="B218" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="C218" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="H218" t="s">
         <v>338</v>
@@ -6066,10 +6060,10 @@
         <v>235</v>
       </c>
       <c r="B219" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C219" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="H219" t="s">
         <v>275</v>
@@ -6080,10 +6074,10 @@
         <v>235</v>
       </c>
       <c r="B220" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="C220" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="H220" t="s">
         <v>327</v>
@@ -6094,10 +6088,10 @@
         <v>235</v>
       </c>
       <c r="B221" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="C221" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="H221" t="s">
         <v>286</v>
@@ -6108,10 +6102,10 @@
         <v>235</v>
       </c>
       <c r="B222" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="C222" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="H222" t="s">
         <v>285</v>
@@ -6122,10 +6116,10 @@
         <v>235</v>
       </c>
       <c r="B223" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C223" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="H223" t="s">
         <v>284</v>
@@ -6136,13 +6130,13 @@
         <v>235</v>
       </c>
       <c r="B224" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="C224" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="H224" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6150,13 +6144,13 @@
         <v>235</v>
       </c>
       <c r="B225" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="C225" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="H225" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6164,13 +6158,13 @@
         <v>235</v>
       </c>
       <c r="B226" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="C226" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="H226" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6178,13 +6172,13 @@
         <v>235</v>
       </c>
       <c r="B227" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="C227" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="H227" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6192,13 +6186,13 @@
         <v>235</v>
       </c>
       <c r="B228" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="C228" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="H228" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6206,13 +6200,13 @@
         <v>235</v>
       </c>
       <c r="B229" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="C229" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="H229" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -6220,13 +6214,13 @@
         <v>235</v>
       </c>
       <c r="B230" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="C230" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="H230" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6234,10 +6228,10 @@
         <v>235</v>
       </c>
       <c r="B231" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="C231" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="H231" t="s">
         <v>282</v>
@@ -6248,10 +6242,10 @@
         <v>235</v>
       </c>
       <c r="B232" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="C232" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="H232" t="s">
         <v>321</v>
@@ -6262,10 +6256,10 @@
         <v>235</v>
       </c>
       <c r="B233" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="C233" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="H233" t="s">
         <v>334</v>
@@ -6276,10 +6270,10 @@
         <v>235</v>
       </c>
       <c r="B234" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="C234" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="H234" t="s">
         <v>337</v>
@@ -6290,10 +6284,10 @@
         <v>235</v>
       </c>
       <c r="B235" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="C235" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="H235" t="s">
         <v>326</v>
@@ -6304,10 +6298,10 @@
         <v>235</v>
       </c>
       <c r="B236" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="C236" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="H236" t="s">
         <v>331</v>
@@ -6318,13 +6312,13 @@
         <v>235</v>
       </c>
       <c r="B237" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="C237" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="H237" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6332,10 +6326,10 @@
         <v>235</v>
       </c>
       <c r="B238" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="C238" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="H238" t="s">
         <v>329</v>
@@ -6346,10 +6340,10 @@
         <v>235</v>
       </c>
       <c r="B239" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="C239" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="H239" t="s">
         <v>281</v>
@@ -6360,10 +6354,10 @@
         <v>235</v>
       </c>
       <c r="B240" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="C240" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="H240" t="s">
         <v>287</v>
@@ -6374,10 +6368,10 @@
         <v>235</v>
       </c>
       <c r="B241" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="C241" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="H241" t="s">
         <v>293</v>
@@ -6388,10 +6382,10 @@
         <v>235</v>
       </c>
       <c r="B242" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="C242" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="H242" t="s">
         <v>292</v>
@@ -6402,10 +6396,10 @@
         <v>235</v>
       </c>
       <c r="B243" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="C243" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="H243" t="s">
         <v>290</v>
@@ -6416,10 +6410,10 @@
         <v>235</v>
       </c>
       <c r="B244" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="C244" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="H244" t="s">
         <v>243</v>
@@ -6430,10 +6424,10 @@
         <v>235</v>
       </c>
       <c r="B245" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C245" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="H245" t="s">
         <v>257</v>
@@ -6444,10 +6438,10 @@
         <v>235</v>
       </c>
       <c r="B246" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="C246" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="H246" t="s">
         <v>301</v>
@@ -6458,10 +6452,10 @@
         <v>235</v>
       </c>
       <c r="B247" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="C247" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="H247" t="s">
         <v>294</v>
@@ -6472,10 +6466,10 @@
         <v>235</v>
       </c>
       <c r="B248" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="C248" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="H248" t="s">
         <v>302</v>
@@ -6486,10 +6480,10 @@
         <v>235</v>
       </c>
       <c r="B249" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="C249" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="H249" t="s">
         <v>295</v>
@@ -6500,10 +6494,10 @@
         <v>235</v>
       </c>
       <c r="B250" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="C250" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="H250" t="s">
         <v>260</v>
@@ -6514,10 +6508,10 @@
         <v>235</v>
       </c>
       <c r="B251" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="C251" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="H251" t="s">
         <v>297</v>
@@ -6528,10 +6522,10 @@
         <v>235</v>
       </c>
       <c r="B252" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="C252" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="H252" t="s">
         <v>300</v>
@@ -6542,13 +6536,13 @@
         <v>235</v>
       </c>
       <c r="B253" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="C253" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="H253" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -6556,10 +6550,10 @@
         <v>235</v>
       </c>
       <c r="B254" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="C254" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="H254" t="s">
         <v>299</v>
@@ -6570,10 +6564,10 @@
         <v>235</v>
       </c>
       <c r="B255" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="C255" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="H255" t="s">
         <v>328</v>
@@ -6584,13 +6578,13 @@
         <v>235</v>
       </c>
       <c r="B256" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="C256" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="H256" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -6598,10 +6592,10 @@
         <v>235</v>
       </c>
       <c r="B257" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="C257" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="H257" t="s">
         <v>305</v>
@@ -6612,10 +6606,10 @@
         <v>235</v>
       </c>
       <c r="B258" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="C258" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="H258" t="s">
         <v>245</v>
@@ -6626,10 +6620,10 @@
         <v>235</v>
       </c>
       <c r="B259" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="C259" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="H259" t="s">
         <v>304</v>
@@ -6640,10 +6634,10 @@
         <v>235</v>
       </c>
       <c r="B260" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="C260" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="H260" t="s">
         <v>313</v>
@@ -6654,10 +6648,10 @@
         <v>235</v>
       </c>
       <c r="B261" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="C261" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="H261" t="s">
         <v>307</v>
@@ -6668,10 +6662,10 @@
         <v>235</v>
       </c>
       <c r="B262" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="C262" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="H262" t="s">
         <v>303</v>
@@ -6682,13 +6676,13 @@
         <v>235</v>
       </c>
       <c r="B263" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="C263" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="H263" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -6696,10 +6690,10 @@
         <v>235</v>
       </c>
       <c r="B264" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="C264" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="H264" t="s">
         <v>268</v>
@@ -6710,10 +6704,10 @@
         <v>235</v>
       </c>
       <c r="B265" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="C265" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="H265" t="s">
         <v>309</v>
@@ -6724,10 +6718,10 @@
         <v>235</v>
       </c>
       <c r="B266" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="C266" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="H266" t="s">
         <v>306</v>
@@ -6738,10 +6732,10 @@
         <v>235</v>
       </c>
       <c r="B267" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="C267" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="H267" t="s">
         <v>312</v>
@@ -6752,10 +6746,10 @@
         <v>235</v>
       </c>
       <c r="B268" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="C268" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="H268" t="s">
         <v>314</v>
@@ -6766,10 +6760,10 @@
         <v>235</v>
       </c>
       <c r="B269" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="C269" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="H269" t="s">
         <v>271</v>
@@ -6780,10 +6774,10 @@
         <v>235</v>
       </c>
       <c r="B270" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="C270" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="H270" t="s">
         <v>315</v>
@@ -6794,10 +6788,10 @@
         <v>235</v>
       </c>
       <c r="B271" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="C271" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="H271" t="s">
         <v>264</v>
@@ -6808,10 +6802,10 @@
         <v>235</v>
       </c>
       <c r="B272" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="C272" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="H272" t="s">
         <v>296</v>
@@ -6822,10 +6816,10 @@
         <v>235</v>
       </c>
       <c r="B273" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="C273" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="H273" t="s">
         <v>330</v>
@@ -6836,10 +6830,10 @@
         <v>235</v>
       </c>
       <c r="B274" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="C274" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="H274" t="s">
         <v>350</v>
@@ -6850,10 +6844,10 @@
         <v>235</v>
       </c>
       <c r="B275" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="C275" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="H275" t="s">
         <v>311</v>
@@ -6864,10 +6858,10 @@
         <v>235</v>
       </c>
       <c r="B276" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="C276" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="H276" t="s">
         <v>310</v>
@@ -6878,10 +6872,10 @@
         <v>235</v>
       </c>
       <c r="B277" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="C277" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="H277" t="s">
         <v>269</v>
@@ -6892,10 +6886,10 @@
         <v>235</v>
       </c>
       <c r="B278" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="C278" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="H278" t="s">
         <v>298</v>
@@ -6906,10 +6900,10 @@
         <v>235</v>
       </c>
       <c r="B279" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="C279" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="H279" t="s">
         <v>291</v>
@@ -6920,10 +6914,10 @@
         <v>235</v>
       </c>
       <c r="B280" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="C280" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="H280" t="s">
         <v>256</v>
@@ -6970,10 +6964,10 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="22" t="s">
-        <v>445</v>
+        <v>510</v>
       </c>
       <c r="B2" s="23" t="s">
-        <v>446</v>
+        <v>511</v>
       </c>
       <c r="C2" s="21" t="s">
         <v>240</v>
